--- a/PythonResources/Data/Consumption/Sympheny/base_1500_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1500_hea.xlsx
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>65.88471405937972</v>
+        <v>65.8847140593797</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>73.22204058330516</v>
+        <v>73.22204058330514</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -583,7 +583,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>756.1232797462709</v>
+        <v>756.1232797462708</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>7.492214567857962</v>
+        <v>7.492214567857961</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -767,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>83.62459710058961</v>
+        <v>83.6245971005896</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>808.8760667053131</v>
+        <v>808.876066705313</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>58.18720322893948</v>
+        <v>58.18720322893947</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>89.00010609171601</v>
+        <v>89.00010609171599</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>19.09419361796784</v>
+        <v>19.09419361796783</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>27.31067464366958</v>
+        <v>27.31067464366957</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>63.38423195752112</v>
+        <v>63.38423195752111</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>234.2680931801784</v>
+        <v>234.2680931801783</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>57.10430574108581</v>
+        <v>57.1043057410858</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>75.61496561397504</v>
+        <v>75.61496561397503</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>782.499673225792</v>
+        <v>782.4996732257919</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>235.09748421959</v>
+        <v>235.0974842195899</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>154.318606904402</v>
+        <v>154.3186069044019</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>61.93265110303148</v>
+        <v>61.93265110303147</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>9.392838867784519</v>
+        <v>9.392838867784516</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>76.3992237134328</v>
+        <v>76.39922371343279</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>187.1616128519857</v>
+        <v>187.1616128519856</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>59.90166880510835</v>
+        <v>59.90166880510834</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>782.499673225792</v>
+        <v>782.4996732257919</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>265.0089005674442</v>
+        <v>265.0089005674441</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>814.7374874785399</v>
+        <v>814.7374874785398</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>207.0898573388799</v>
+        <v>207.0898573388798</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>60.34039614998439</v>
+        <v>60.34039614998438</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>85.17845974757206</v>
+        <v>85.17845974757205</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>287.9786362935658</v>
+        <v>287.9786362935657</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>162.1175203142191</v>
+        <v>162.117520314219</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>166.8213104847337</v>
+        <v>166.8213104847336</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>984.7186899021202</v>
+        <v>984.71868990212</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>896.7973783037166</v>
+        <v>896.7973783037165</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>756.1232797462709</v>
+        <v>756.1232797462708</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>88.80667920619952</v>
+        <v>88.8066792061995</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>984.7186899021202</v>
+        <v>984.71868990212</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>258.5578208644307</v>
+        <v>258.5578208644306</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>48.45783088746014</v>
+        <v>48.45783088746013</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>260.2124999487126</v>
+        <v>260.2124999487125</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>814.7374874785399</v>
+        <v>814.7374874785398</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>697.5090720140018</v>
+        <v>697.5090720140017</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>196.2693815204643</v>
+        <v>196.2693815204642</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>274.3898114439552</v>
+        <v>274.3898114439551</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>868</v>
       </c>
       <c r="B868">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>1310.027542816214</v>
+        <v>1310.027542816213</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>753.1925693596575</v>
+        <v>753.1925693596573</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>668.2019681478673</v>
+        <v>668.2019681478672</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>66.55760516414617</v>
+        <v>66.55760516414615</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>912</v>
       </c>
       <c r="B912">
-        <v>156.9407134873051</v>
+        <v>156.940713487305</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>207.8855452088454</v>
+        <v>207.8855452088453</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>926.1044821698512</v>
+        <v>926.1044821698511</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>838.1831705714476</v>
+        <v>838.1831705714475</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>507.0128968841274</v>
+        <v>507.0128968841273</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>86.81701992472765</v>
+        <v>86.81701992472763</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>968</v>
       </c>
       <c r="B968">
-        <v>150.5265607351629</v>
+        <v>150.5265607351628</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>87.53504396944794</v>
+        <v>87.53504396944793</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>981</v>
       </c>
       <c r="B981">
-        <v>82.01387867210686</v>
+        <v>82.01387867210684</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>94.60010749845701</v>
+        <v>94.60010749845698</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>86.34019334482564</v>
+        <v>86.34019334482562</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>2.708908363133774</v>
+        <v>2.708908363133773</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>3.707905474039475</v>
+        <v>3.707905474039474</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>60.60240165854763</v>
+        <v>60.60240165854762</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>1025</v>
       </c>
       <c r="B1025">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>283.432518341851</v>
+        <v>283.4325183418509</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>102.0493871591511</v>
+        <v>102.049387159151</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>129.8433652526771</v>
+        <v>129.843365252677</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>52.4219097563935</v>
+        <v>52.42190975639349</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>58.85745669435798</v>
+        <v>58.85745669435797</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>181.729248079359</v>
+        <v>181.7292480793589</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>208.513303373658</v>
+        <v>208.5133033736579</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>583.2113669360772</v>
+        <v>583.2113669360771</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>1124</v>
       </c>
       <c r="B1124">
-        <v>88.29409795958082</v>
+        <v>88.29409795958081</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>240.6675923803875</v>
+        <v>240.6675923803874</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>269.996383503383</v>
+        <v>269.9963835033829</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>200.7123384665703</v>
+        <v>200.7123384665702</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>1150</v>
       </c>
       <c r="B1150">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>1165</v>
       </c>
       <c r="B1165">
-        <v>72.5113433145514</v>
+        <v>72.51134331455138</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>66.47085613670241</v>
+        <v>66.47085613670239</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>1176</v>
       </c>
       <c r="B1176">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -9911,7 +9911,7 @@
         <v>1196</v>
       </c>
       <c r="B1196">
-        <v>201.6375637356242</v>
+        <v>201.6375637356241</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -9943,7 +9943,7 @@
         <v>1200</v>
       </c>
       <c r="B1200">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>263.7346276913447</v>
+        <v>263.7346276913446</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>7.894952789186383</v>
+        <v>7.894952789186382</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>34.54516254012876</v>
+        <v>34.54516254012875</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>0.9434396341066698</v>
+        <v>0.9434396341066696</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>69.48714326660497</v>
+        <v>69.48714326660496</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>4.92989447684182</v>
+        <v>4.929894476841819</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>277.2967830764371</v>
+        <v>277.296783076437</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>79.1658143183959</v>
+        <v>79.16581431839589</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1435</v>
       </c>
       <c r="B1435">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>223.3330265856463</v>
+        <v>223.3330265856462</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>1450</v>
       </c>
       <c r="B1450">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12487,7 +12487,7 @@
         <v>1518</v>
       </c>
       <c r="B1518">
-        <v>929.0351925564646</v>
+        <v>929.0351925564644</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>275.4747604290795</v>
+        <v>275.4747604290794</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>147.2799197688725</v>
+        <v>147.2799197688724</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>47.41830791332835</v>
+        <v>47.41830791332834</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>85.13274066554089</v>
+        <v>85.13274066554088</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>37.76513404190096</v>
+        <v>37.76513404190095</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>50.88826901107868</v>
+        <v>50.88826901107867</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>2.205444556527836</v>
+        <v>2.205444556527835</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -13215,7 +13215,7 @@
         <v>1609</v>
       </c>
       <c r="B1609">
-        <v>266.6163952145017</v>
+        <v>266.6163952145016</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>31.40197565048583</v>
+        <v>31.40197565048582</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>78.81471521407961</v>
+        <v>78.8147152140796</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>9.541396577281954</v>
+        <v>9.541396577281953</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13743,7 +13743,7 @@
         <v>1675</v>
       </c>
       <c r="B1675">
-        <v>59.06641634492352</v>
+        <v>59.06641634492351</v>
       </c>
     </row>
     <row r="1676" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>133.8027549849919</v>
+        <v>133.8027549849918</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13975,7 +13975,7 @@
         <v>1704</v>
       </c>
       <c r="B1704">
-        <v>84.41149283939532</v>
+        <v>84.41149283939531</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14143,7 +14143,7 @@
         <v>1725</v>
       </c>
       <c r="B1725">
-        <v>29.44015811768678</v>
+        <v>29.44015811768677</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>76.82446979053042</v>
+        <v>76.8244697905304</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>177.1338941931491</v>
+        <v>177.133894193149</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14519,7 +14519,7 @@
         <v>1772</v>
       </c>
       <c r="B1772">
-        <v>6.114458308007112</v>
+        <v>6.114458308007111</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>101.8553741315573</v>
+        <v>101.8553741315572</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>83.59411771256883</v>
+        <v>83.59411771256882</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>113.2514414699037</v>
+        <v>113.2514414699036</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>23.37174126985337</v>
+        <v>23.37174126985336</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15303,7 +15303,7 @@
         <v>1870</v>
       </c>
       <c r="B1870">
-        <v>7.247939857133731</v>
+        <v>7.24793985713373</v>
       </c>
     </row>
     <row r="1871" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15511,7 +15511,7 @@
         <v>1896</v>
       </c>
       <c r="B1896">
-        <v>46.62086161713083</v>
+        <v>46.62086161713082</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>74.41952884727542</v>
+        <v>74.4195288472754</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15719,7 +15719,7 @@
         <v>1922</v>
       </c>
       <c r="B1922">
-        <v>100.953887616635</v>
+        <v>100.9538876166349</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
@@ -15735,7 +15735,7 @@
         <v>1924</v>
       </c>
       <c r="B1924">
-        <v>136.8580205630364</v>
+        <v>136.8580205630363</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>11.09194752152754</v>
+        <v>11.09194752152753</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15863,7 +15863,7 @@
         <v>1940</v>
       </c>
       <c r="B1940">
-        <v>0.4013578567363258</v>
+        <v>0.4013578567363257</v>
       </c>
     </row>
     <row r="1941" spans="1:2">
@@ -15919,7 +15919,7 @@
         <v>1947</v>
       </c>
       <c r="B1947">
-        <v>47.49245488610967</v>
+        <v>47.49245488610966</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -16023,7 +16023,7 @@
         <v>1960</v>
       </c>
       <c r="B1960">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="1961" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>83.14308138406902</v>
+        <v>83.14308138406901</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16207,7 +16207,7 @@
         <v>1983</v>
       </c>
       <c r="B1983">
-        <v>20.05678544445103</v>
+        <v>20.05678544445102</v>
       </c>
     </row>
     <row r="1984" spans="1:2">
@@ -16231,7 +16231,7 @@
         <v>1986</v>
       </c>
       <c r="B1986">
-        <v>68.64397788837628</v>
+        <v>68.64397788837627</v>
       </c>
     </row>
     <row r="1987" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>81.10242774187007</v>
+        <v>81.10242774187006</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>87.82840807914795</v>
+        <v>87.82840807914793</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16511,7 +16511,7 @@
         <v>2021</v>
       </c>
       <c r="B2021">
-        <v>952.4808756493724</v>
+        <v>952.480875649372</v>
       </c>
     </row>
     <row r="2022" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16783,7 +16783,7 @@
         <v>2055</v>
       </c>
       <c r="B2055">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>40.74097736846826</v>
+        <v>40.74097736846825</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -16855,7 +16855,7 @@
         <v>2064</v>
       </c>
       <c r="B2064">
-        <v>88.89284209156595</v>
+        <v>88.89284209156594</v>
       </c>
     </row>
     <row r="2065" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -17071,7 +17071,7 @@
         <v>2091</v>
       </c>
       <c r="B2091">
-        <v>59.42015308858776</v>
+        <v>59.42015308858775</v>
       </c>
     </row>
     <row r="2092" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>194.157218544832</v>
+        <v>194.1572185448319</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>0.6294462539952911</v>
+        <v>0.629446253995291</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>8.049078848418384</v>
+        <v>8.049078848418382</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>66.62120157953568</v>
+        <v>66.62120157953566</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>181.3245169749677</v>
+        <v>181.3245169749676</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>2.968164865354373</v>
+        <v>2.968164865354372</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>69.04401985614902</v>
+        <v>69.04401985614901</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>0.3801248599853113</v>
+        <v>0.3801248599853112</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>6.787349412773561</v>
+        <v>6.78734941277356</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17599,7 +17599,7 @@
         <v>2157</v>
       </c>
       <c r="B2157">
-        <v>50.06298096620833</v>
+        <v>50.06298096620832</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>50.69718669387148</v>
+        <v>50.69718669387147</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>0.5813386429990312</v>
+        <v>0.581338642999031</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>18.11477951386549</v>
+        <v>18.11477951386548</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -18015,7 +18015,7 @@
         <v>2209</v>
       </c>
       <c r="B2209">
-        <v>3.895470938782736</v>
+        <v>3.895470938782735</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>7.766675595564312</v>
+        <v>7.766675595564311</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>2.696974510439484</v>
+        <v>2.696974510439483</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>6.250179506011181</v>
+        <v>6.25017950601118</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>7.403326121831976</v>
+        <v>7.403326121831975</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>0.5393708702627266</v>
+        <v>0.5393708702627265</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>4.500955704657075</v>
+        <v>4.500955704657074</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -18599,7 +18599,7 @@
         <v>2282</v>
       </c>
       <c r="B2282">
-        <v>0.8149162608121234</v>
+        <v>0.8149162608121233</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>176.2476473722372</v>
+        <v>176.2476473722371</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>88.95702464903279</v>
+        <v>88.95702464903277</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>2.222902798300892</v>
+        <v>2.222902798300891</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -19007,7 +19007,7 @@
         <v>2333</v>
       </c>
       <c r="B2333">
-        <v>5.884544078177287</v>
+        <v>5.884544078177286</v>
       </c>
     </row>
     <row r="2334" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>5.410472366038694</v>
+        <v>5.410472366038693</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>64.19574566357439</v>
+        <v>64.19574566357437</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19311,7 +19311,7 @@
         <v>2371</v>
       </c>
       <c r="B2371">
-        <v>1.825269874465952</v>
+        <v>1.825269874465951</v>
       </c>
     </row>
     <row r="2372" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>31.8093443942251</v>
+        <v>31.80934439422509</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>2.78329272345641</v>
+        <v>2.783292723456409</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>2.237527043130093</v>
+        <v>2.237527043130092</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20031,7 +20031,7 @@
         <v>2461</v>
       </c>
       <c r="B2461">
-        <v>5.135630345982085</v>
+        <v>5.135630345982084</v>
       </c>
     </row>
     <row r="2462" spans="1:2">
@@ -20119,7 +20119,7 @@
         <v>2472</v>
       </c>
       <c r="B2472">
-        <v>6.8604413298157</v>
+        <v>6.860441329815699</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>82.7020094708837</v>
+        <v>82.70200947088368</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20359,7 +20359,7 @@
         <v>2502</v>
       </c>
       <c r="B2502">
-        <v>97.8276988472344</v>
+        <v>97.82769884723436</v>
       </c>
     </row>
     <row r="2503" spans="1:2">
@@ -20383,7 +20383,7 @@
         <v>2505</v>
       </c>
       <c r="B2505">
-        <v>5.287616986631858</v>
+        <v>5.287616986631857</v>
       </c>
     </row>
     <row r="2506" spans="1:2">
@@ -20519,7 +20519,7 @@
         <v>2522</v>
       </c>
       <c r="B2522">
-        <v>23.39184594310554</v>
+        <v>23.39184594310553</v>
       </c>
     </row>
     <row r="2523" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>33.25858068040545</v>
+        <v>33.25858068040544</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>5.021918782981483</v>
+        <v>5.021918782981482</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20719,7 +20719,7 @@
         <v>2547</v>
       </c>
       <c r="B2547">
-        <v>1.182509403184276</v>
+        <v>1.182509403184275</v>
       </c>
     </row>
     <row r="2548" spans="1:2">
@@ -20879,7 +20879,7 @@
         <v>2567</v>
       </c>
       <c r="B2567">
-        <v>28.23235375315565</v>
+        <v>28.23235375315564</v>
       </c>
     </row>
     <row r="2568" spans="1:2">
@@ -20903,7 +20903,7 @@
         <v>2570</v>
       </c>
       <c r="B2570">
-        <v>83.64980120991449</v>
+        <v>83.64980120991447</v>
       </c>
     </row>
     <row r="2571" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>177.6836954616778</v>
+        <v>177.6836954616777</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>80.70766105279324</v>
+        <v>80.70766105279323</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>34.90944984118481</v>
+        <v>34.9094498411848</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21223,7 +21223,7 @@
         <v>2610</v>
       </c>
       <c r="B2610">
-        <v>55.56568278811375</v>
+        <v>55.56568278811374</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>66.02773272624646</v>
+        <v>66.02773272624644</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>0.5620457765239548</v>
+        <v>0.5620457765239547</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21599,7 +21599,7 @@
         <v>2657</v>
       </c>
       <c r="B2657">
-        <v>3.048056030493456</v>
+        <v>3.048056030493455</v>
       </c>
     </row>
     <row r="2658" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>28.26705336413315</v>
+        <v>28.26705336413314</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>180.8462250398724</v>
+        <v>180.8462250398723</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22063,7 +22063,7 @@
         <v>2715</v>
       </c>
       <c r="B2715">
-        <v>80.46998044043889</v>
+        <v>80.46998044043887</v>
       </c>
     </row>
     <row r="2716" spans="1:2">
@@ -22071,7 +22071,7 @@
         <v>2716</v>
       </c>
       <c r="B2716">
-        <v>69.93554195575683</v>
+        <v>69.93554195575682</v>
       </c>
     </row>
     <row r="2717" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>94.65784249307328</v>
+        <v>94.65784249307326</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>94.32930985873392</v>
+        <v>94.32930985873389</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>122.2692373295133</v>
+        <v>122.2692373295132</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>1.073536798878828</v>
+        <v>1.073536798878827</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22463,7 +22463,7 @@
         <v>2765</v>
       </c>
       <c r="B2765">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="2766" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>73.55321085699248</v>
+        <v>73.55321085699246</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22511,7 +22511,7 @@
         <v>2771</v>
       </c>
       <c r="B2771">
-        <v>7.432545304386513</v>
+        <v>7.432545304386512</v>
       </c>
     </row>
     <row r="2772" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>5.862768900004748</v>
+        <v>5.862768900004747</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22703,7 +22703,7 @@
         <v>2795</v>
       </c>
       <c r="B2795">
-        <v>4.650597776997558</v>
+        <v>4.650597776997557</v>
       </c>
     </row>
     <row r="2796" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>72.18281068021203</v>
+        <v>72.18281068021201</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>29.86804183413235</v>
+        <v>29.86804183413234</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23183,7 +23183,7 @@
         <v>2855</v>
       </c>
       <c r="B2855">
-        <v>1.144037967939201</v>
+        <v>1.1440379679392</v>
       </c>
     </row>
     <row r="2856" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>8.296079119802167</v>
+        <v>8.296079119802165</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>8.67370115311731</v>
+        <v>8.673701153117308</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>87.28007216581257</v>
+        <v>87.28007216581256</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23823,7 +23823,7 @@
         <v>2935</v>
       </c>
       <c r="B2935">
-        <v>46.45791411963512</v>
+        <v>46.45791411963511</v>
       </c>
     </row>
     <row r="2936" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>2.000072095475511</v>
+        <v>2.00007209547551</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>0.1768038962036164</v>
+        <v>0.1768038962036163</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>7.884841838352567</v>
+        <v>7.884841838352566</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>1.240194575723989</v>
+        <v>1.240194575723988</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>59.8201950563605</v>
+        <v>59.82019505636049</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>49.75730787288455</v>
+        <v>49.75730787288454</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>37.18162960392622</v>
+        <v>37.18162960392621</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25015,7 +25015,7 @@
         <v>3084</v>
       </c>
       <c r="B3084">
-        <v>36.46331248816726</v>
+        <v>36.46331248816725</v>
       </c>
     </row>
     <row r="3085" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>7.485854926319011</v>
+        <v>7.48585492631901</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>74.8222084543961</v>
+        <v>74.82220845439609</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>1.835298765408943</v>
+        <v>1.835298765408942</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25399,7 +25399,7 @@
         <v>3132</v>
       </c>
       <c r="B3132">
-        <v>1.635855131468738</v>
+        <v>1.635855131468737</v>
       </c>
     </row>
     <row r="3133" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>3.036772795504994</v>
+        <v>3.036772795504993</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>37.27101627071793</v>
+        <v>37.27101627071792</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>54.58975622937147</v>
+        <v>54.58975622937146</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>85.43812068782601</v>
+        <v>85.438120687826</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>0.4320130873803025</v>
+        <v>0.4320130873803024</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -26855,7 +26855,7 @@
         <v>3314</v>
       </c>
       <c r="B3314">
-        <v>4.071254947771811</v>
+        <v>4.07125494777181</v>
       </c>
     </row>
     <row r="3315" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>0.6821052582219616</v>
+        <v>0.6821052582219614</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>9.836401884798464</v>
+        <v>9.836401884798462</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>0.7125289627453958</v>
+        <v>0.7125289627453957</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>6.734450090295188</v>
+        <v>6.734450090295187</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27311,7 +27311,7 @@
         <v>3371</v>
       </c>
       <c r="B3371">
-        <v>25.75188840323762</v>
+        <v>25.75188840323761</v>
       </c>
     </row>
     <row r="3372" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>7.116438882086385</v>
+        <v>7.116438882086384</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27439,7 +27439,7 @@
         <v>3387</v>
       </c>
       <c r="B3387">
-        <v>26.64528615749287</v>
+        <v>26.64528615749286</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>0.9626182028766682</v>
+        <v>0.962618202876668</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27535,7 +27535,7 @@
         <v>3399</v>
       </c>
       <c r="B3399">
-        <v>0.5532858831783672</v>
+        <v>0.5532858831783671</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>3.520105552465285</v>
+        <v>3.520105552465284</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>0.1569489194763876</v>
+        <v>0.1569489194763875</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28999,7 +28999,7 @@
         <v>3582</v>
       </c>
       <c r="B3582">
-        <v>0.9598574736924784</v>
+        <v>0.9598574736924782</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>0.9902167025874072</v>
+        <v>0.990216702587407</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>2.394416762256671</v>
+        <v>2.39441676225667</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>0.0314090093554137</v>
+        <v>0.0314090093554136</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>2.217560113266096</v>
+        <v>2.217560113266095</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>0.6117008026043466</v>
+        <v>0.6117008026043464</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>0.3064262858931428</v>
+        <v>0.3064262858931427</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>0.5884631999488885</v>
+        <v>0.5884631999488884</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -37063,7 +37063,7 @@
         <v>4590</v>
       </c>
       <c r="B4590">
-        <v>2.426859726236482</v>
+        <v>2.426859726236481</v>
       </c>
     </row>
     <row r="4591" spans="1:2">
@@ -40143,7 +40143,7 @@
         <v>4975</v>
       </c>
       <c r="B4975">
-        <v>0.9119725966856012</v>
+        <v>0.911972596685601</v>
       </c>
     </row>
     <row r="4976" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>0.7664247267552172</v>
+        <v>0.7664247267552171</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>0.2354351020561278</v>
+        <v>0.2354351020561277</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>0.6506206365385733</v>
+        <v>0.6506206365385732</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>0.1433023596321607</v>
+        <v>0.1433023596321606</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42847,7 +42847,7 @@
         <v>5313</v>
       </c>
       <c r="B5313">
-        <v>0.7794605265548739</v>
+        <v>0.7794605265548737</v>
       </c>
     </row>
     <row r="5314" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>0.8163904081365899</v>
+        <v>0.8163904081365898</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>0.8972369848617087</v>
+        <v>0.8972369848617086</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>0.802856387571209</v>
+        <v>0.8028563875712089</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>18.47892027940221</v>
+        <v>18.4789202794022</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46855,7 +46855,7 @@
         <v>5814</v>
       </c>
       <c r="B5814">
-        <v>9.530523641747619</v>
+        <v>9.530523641747616</v>
       </c>
     </row>
     <row r="5815" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>6.914776700383514</v>
+        <v>6.914776700383513</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>0.8936644489004268</v>
+        <v>0.8936644489004267</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>2.312069661813606</v>
+        <v>2.312069661813605</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>31.81579195707565</v>
+        <v>31.81579195707564</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>1.277312022770448</v>
+        <v>1.277312022770447</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>0.2640763485224238</v>
+        <v>0.2640763485224237</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49575,7 +49575,7 @@
         <v>6154</v>
       </c>
       <c r="B6154">
-        <v>2.416344337369313</v>
+        <v>2.416344337369312</v>
       </c>
     </row>
     <row r="6155" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>0.3192891737799893</v>
+        <v>0.3192891737799892</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>0.1183620142420802</v>
+        <v>0.1183620142420801</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>79.51486192544156</v>
+        <v>79.51486192544155</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>2.625769970886324</v>
+        <v>2.625769970886323</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>76.82183215118246</v>
+        <v>76.82183215118245</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>65.68659803724465</v>
+        <v>65.68659803724464</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51751,7 +51751,7 @@
         <v>6426</v>
       </c>
       <c r="B6426">
-        <v>60.03413691458328</v>
+        <v>60.03413691458327</v>
       </c>
     </row>
     <row r="6427" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>8.071909082330103</v>
+        <v>8.071909082330102</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>96.07249639669161</v>
+        <v>96.07249639669158</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>45.15843713421072</v>
+        <v>45.15843713421071</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>102.8925525373798</v>
+        <v>102.8925525373797</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>6.691339340508104</v>
+        <v>6.691339340508103</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -54135,7 +54135,7 @@
         <v>6724</v>
       </c>
       <c r="B6724">
-        <v>59.05615885857037</v>
+        <v>59.05615885857036</v>
       </c>
     </row>
     <row r="6725" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>11.10490126143637</v>
+        <v>11.10490126143636</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>7.438084347017211</v>
+        <v>7.43808434701721</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>30.88353298309391</v>
+        <v>30.8835329830939</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>42.34612744721645</v>
+        <v>42.34612744721644</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54935,7 +54935,7 @@
         <v>6824</v>
       </c>
       <c r="B6824">
-        <v>52.13938927512396</v>
+        <v>52.13938927512395</v>
       </c>
     </row>
     <row r="6825" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>6.930661150678959</v>
+        <v>6.930661150678958</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -55703,7 +55703,7 @@
         <v>6920</v>
       </c>
       <c r="B6920">
-        <v>49.64740623338654</v>
+        <v>49.64740623338653</v>
       </c>
     </row>
     <row r="6921" spans="1:2">
@@ -55719,7 +55719,7 @@
         <v>6922</v>
       </c>
       <c r="B6922">
-        <v>6.082015344027301</v>
+        <v>6.0820153440273</v>
       </c>
     </row>
     <row r="6923" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>4.885376986069161</v>
+        <v>4.88537698606916</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>1.153993591122527</v>
+        <v>1.153993591122526</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>40.14223323648313</v>
+        <v>40.14223323648312</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>5.462990696166807</v>
+        <v>5.462990696166806</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>6.307269744342411</v>
+        <v>6.30726974434241</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>5.540654521412064</v>
+        <v>5.540654521412063</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56239,7 +56239,7 @@
         <v>6987</v>
       </c>
       <c r="B6987">
-        <v>51.53507679340427</v>
+        <v>51.53507679340426</v>
       </c>
     </row>
     <row r="6988" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>97.94961639931751</v>
+        <v>97.94961639931748</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>4.656312662251454</v>
+        <v>4.656312662251453</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>97.8655050112217</v>
+        <v>97.86550501122169</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>4.363593308836503</v>
+        <v>4.363593308836502</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>9.73795932291212</v>
+        <v>9.737959322912118</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>3.240896773932621</v>
+        <v>3.24089677393262</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>4.94293613806225</v>
+        <v>4.942936138062249</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>61.77673731046364</v>
+        <v>61.77673731046363</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>39.25305570518461</v>
+        <v>39.2530557051846</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>28.66806246633347</v>
+        <v>28.66806246633346</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -57647,7 +57647,7 @@
         <v>7163</v>
       </c>
       <c r="B7163">
-        <v>8.682082984823024</v>
+        <v>8.682082984823023</v>
       </c>
     </row>
     <row r="7164" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>5.662542766391318</v>
+        <v>5.662542766391317</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57695,7 +57695,7 @@
         <v>7169</v>
       </c>
       <c r="B7169">
-        <v>53.52004693825756</v>
+        <v>53.52004693825755</v>
       </c>
     </row>
     <row r="7170" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>23.07820131753017</v>
+        <v>23.07820131753016</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57903,7 +57903,7 @@
         <v>7195</v>
       </c>
       <c r="B7195">
-        <v>23.77295552178075</v>
+        <v>23.77295552178074</v>
       </c>
     </row>
     <row r="7196" spans="1:2">
@@ -58047,7 +58047,7 @@
         <v>7213</v>
       </c>
       <c r="B7213">
-        <v>0.5883254565607177</v>
+        <v>0.5883254565607176</v>
       </c>
     </row>
     <row r="7214" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>50.52632627833192</v>
+        <v>50.52632627833191</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>867.4902744375821</v>
+        <v>867.490274437582</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>245.0410914903308</v>
+        <v>245.0410914903307</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>161.9188181500067</v>
+        <v>161.9188181500066</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>92.89267562721599</v>
+        <v>92.89267562721598</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>42.00206204782803</v>
+        <v>42.00206204782802</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -58927,7 +58927,7 @@
         <v>7323</v>
       </c>
       <c r="B7323">
-        <v>63.18582286434739</v>
+        <v>63.18582286434738</v>
       </c>
     </row>
     <row r="7324" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>67.17422662948964</v>
+        <v>67.17422662948962</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>8.608317004391964</v>
+        <v>8.608317004391962</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59111,7 +59111,7 @@
         <v>7346</v>
       </c>
       <c r="B7346">
-        <v>33.15160975129406</v>
+        <v>33.15160975129405</v>
       </c>
     </row>
     <row r="7347" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>93.77423331150932</v>
+        <v>93.77423331150931</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>3.633817115465887</v>
+        <v>3.633817115465886</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>3.539565469432398</v>
+        <v>3.539565469432397</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>8.999830604939655</v>
+        <v>8.999830604939653</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59303,7 +59303,7 @@
         <v>7370</v>
       </c>
       <c r="B7370">
-        <v>15.85956856426257</v>
+        <v>15.85956856426256</v>
       </c>
     </row>
     <row r="7371" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>1.296062707824001</v>
+        <v>1.296062707824</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59447,7 +59447,7 @@
         <v>7388</v>
       </c>
       <c r="B7388">
-        <v>2.348539421864624</v>
+        <v>2.348539421864623</v>
       </c>
     </row>
     <row r="7389" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>4.040804866854897</v>
+        <v>4.040804866854896</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>7.085871572754007</v>
+        <v>7.085871572754006</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>586.1420773226906</v>
+        <v>586.1420773226905</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>63.68756048253561</v>
+        <v>63.6875604825356</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>115.5206905222585</v>
+        <v>115.5206905222584</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>73.03857811310316</v>
+        <v>73.03857811310314</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>59.60918390852433</v>
+        <v>59.60918390852432</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>52.21822538452386</v>
+        <v>52.21822538452385</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>29.3293772650728</v>
+        <v>29.32937726507279</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>35.88244568954048</v>
+        <v>35.88244568954047</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>81.858844092655</v>
+        <v>81.85884409265499</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>23.0727208891072</v>
+        <v>23.07272088910719</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>30.0579518671849</v>
+        <v>30.05795186718489</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60503,7 +60503,7 @@
         <v>7520</v>
       </c>
       <c r="B7520">
-        <v>0.6092800358250038</v>
+        <v>0.6092800358250037</v>
       </c>
     </row>
     <row r="7521" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>73.65783721779458</v>
+        <v>73.65783721779457</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -60927,7 +60927,7 @@
         <v>7573</v>
       </c>
       <c r="B7573">
-        <v>0.8428517922173228</v>
+        <v>0.8428517922173226</v>
       </c>
     </row>
     <row r="7574" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>141.3587125037587</v>
+        <v>141.3587125037586</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>94.967032438861</v>
+        <v>94.96703243886098</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>697.5090720140018</v>
+        <v>697.5090720140017</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>984.7186899021202</v>
+        <v>984.71868990212</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>138.1742025976645</v>
+        <v>138.1742025976644</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>51.80558136208869</v>
+        <v>51.80558136208868</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>205.152071631251</v>
+        <v>205.1520716312509</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -61999,7 +61999,7 @@
         <v>7707</v>
       </c>
       <c r="B7707">
-        <v>222.4163003767136</v>
+        <v>222.4163003767135</v>
       </c>
     </row>
     <row r="7708" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>34.87633281381608</v>
+        <v>34.87633281381607</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>200.4148713623291</v>
+        <v>200.414871362329</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>583.2113669360772</v>
+        <v>583.2113669360771</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>612.5184708022117</v>
+        <v>612.5184708022116</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>255.8058838114006</v>
+        <v>255.8058838114005</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>723.8854654935229</v>
+        <v>723.8854654935228</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>527.5278695904216</v>
+        <v>527.5278695904215</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62527,7 +62527,7 @@
         <v>7773</v>
       </c>
       <c r="B7773">
-        <v>69.16652355030946</v>
+        <v>69.16652355030945</v>
       </c>
     </row>
     <row r="7774" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>841.113880958061</v>
+        <v>841.1138809580609</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>86.58725223041715</v>
+        <v>86.58725223041714</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>811.8067770919265</v>
+        <v>811.8067770919264</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63095,7 +63095,7 @@
         <v>7844</v>
       </c>
       <c r="B7844">
-        <v>85.35664693907816</v>
+        <v>85.35664693907815</v>
       </c>
     </row>
     <row r="7845" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>68.29229264198267</v>
+        <v>68.29229264198266</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>50.16702118493311</v>
+        <v>50.1670211849331</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>57.32645358839111</v>
+        <v>57.3264535883911</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>153.3977777009281</v>
+        <v>153.397777700928</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>896.7973783037166</v>
+        <v>896.7973783037165</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64343,7 +64343,7 @@
         <v>8000</v>
       </c>
       <c r="B8000">
-        <v>583.2113669360772</v>
+        <v>583.2113669360771</v>
       </c>
     </row>
     <row r="8001" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>249.2434371136958</v>
+        <v>249.2434371136957</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>65.17196529335533</v>
+        <v>65.17196529335531</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64639,7 +64639,7 @@
         <v>8037</v>
       </c>
       <c r="B8037">
-        <v>31.95968983705837</v>
+        <v>31.95968983705836</v>
       </c>
     </row>
     <row r="8038" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>38.64405408684633</v>
+        <v>38.64405408684632</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64655,7 +64655,7 @@
         <v>8039</v>
       </c>
       <c r="B8039">
-        <v>66.14232350236304</v>
+        <v>66.14232350236303</v>
       </c>
     </row>
     <row r="8040" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>173.3984107343716</v>
+        <v>173.3984107343715</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>66.65959388560032</v>
+        <v>66.6595938856003</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64863,7 +64863,7 @@
         <v>8065</v>
       </c>
       <c r="B8065">
-        <v>82.47282791865052</v>
+        <v>82.47282791865051</v>
       </c>
     </row>
     <row r="8066" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>80.30761908502051</v>
+        <v>80.30761908502049</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>210.1829290809117</v>
+        <v>210.1829290809116</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>49.68579853945118</v>
+        <v>49.68579853945117</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>35.76287270576665</v>
+        <v>35.76287270576664</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65079,7 +65079,7 @@
         <v>8092</v>
       </c>
       <c r="B8092">
-        <v>1.836975131750086</v>
+        <v>1.836975131750085</v>
       </c>
     </row>
     <row r="8093" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>51.83107854245223</v>
+        <v>51.83107854245222</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>82.15953497832155</v>
+        <v>82.15953497832153</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>282.7564034556593</v>
+        <v>282.7564034556592</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65503,7 +65503,7 @@
         <v>8145</v>
       </c>
       <c r="B8145">
-        <v>81.14814682390124</v>
+        <v>81.14814682390123</v>
       </c>
     </row>
     <row r="8146" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>46.17246292797897</v>
+        <v>46.17246292797896</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>2.152079251097991</v>
+        <v>2.15207925109799</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>9.248384152828342</v>
+        <v>9.24838415282834</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>24.51512862008674</v>
+        <v>24.51512862008673</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65703,7 +65703,7 @@
         <v>8170</v>
       </c>
       <c r="B8170">
-        <v>6.043476502443334</v>
+        <v>6.043476502443333</v>
       </c>
     </row>
     <row r="8171" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>0.2543695426509214</v>
+        <v>0.2543695426509213</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>84.53663417290372</v>
+        <v>84.5366341729037</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>34.71309224528171</v>
+        <v>34.7130922452817</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>72.31058965306838</v>
+        <v>72.31058965306836</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>38.66720669890058</v>
+        <v>38.66720669890057</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>68.66449286108258</v>
+        <v>68.66449286108256</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>753.1925693596575</v>
+        <v>753.1925693596573</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>53.99658044712091</v>
+        <v>53.9965804471209</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>726.8161758801364</v>
+        <v>726.8161758801363</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66663,7 +66663,7 @@
         <v>8290</v>
       </c>
       <c r="B8290">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="8291" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>240.4867675495335</v>
+        <v>240.4867675495334</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66727,7 +66727,7 @@
         <v>8298</v>
       </c>
       <c r="B8298">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="8299" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>64.77661246220117</v>
+        <v>64.77661246220116</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -66911,7 +66911,7 @@
         <v>8321</v>
       </c>
       <c r="B8321">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="8322" spans="1:2">
@@ -66935,7 +66935,7 @@
         <v>8324</v>
       </c>
       <c r="B8324">
-        <v>8.318352518740429</v>
+        <v>8.318352518740427</v>
       </c>
     </row>
     <row r="8325" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>69.94345487380069</v>
+        <v>69.94345487380068</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>182.4273432934503</v>
+        <v>182.4273432934502</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>143.5582106489121</v>
+        <v>143.558210648912</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>126.1193115644074</v>
+        <v>126.1193115644073</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67167,7 +67167,7 @@
         <v>8353</v>
       </c>
       <c r="B8353">
-        <v>219.9278341874401</v>
+        <v>219.92783418744</v>
       </c>
     </row>
     <row r="8354" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>290.7475714668382</v>
+        <v>290.7475714668381</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>556.8349734565561</v>
+        <v>556.834973456556</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>216.8746201066662</v>
+        <v>216.8746201066661</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>86.71180742184822</v>
+        <v>86.71180742184821</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>222.4752076554845</v>
+        <v>222.4752076554844</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>42.18523144699137</v>
+        <v>42.18523144699136</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67911,7 +67911,7 @@
         <v>8446</v>
       </c>
       <c r="B8446">
-        <v>95.82807515044804</v>
+        <v>95.82807515044802</v>
       </c>
     </row>
     <row r="8447" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>36.29508971197565</v>
+        <v>36.29508971197564</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68191,7 +68191,7 @@
         <v>8481</v>
       </c>
       <c r="B8481">
-        <v>247.8566249587503</v>
+        <v>247.8566249587502</v>
       </c>
     </row>
     <row r="8482" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>70.84816517014826</v>
+        <v>70.84816517014825</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>40.57802987097255</v>
+        <v>40.57802987097254</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>52.57723740688401</v>
+        <v>52.577237406884</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68759,7 +68759,7 @@
         <v>8552</v>
       </c>
       <c r="B8552">
-        <v>477.7057930179929</v>
+        <v>477.7057930179928</v>
       </c>
     </row>
     <row r="8553" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>753.1925693596575</v>
+        <v>753.1925693596573</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>288.4874076166819</v>
+        <v>288.4874076166818</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69151,7 +69151,7 @@
         <v>8601</v>
       </c>
       <c r="B8601">
-        <v>269.4137582785242</v>
+        <v>269.4137582785241</v>
       </c>
     </row>
     <row r="8602" spans="1:2">
@@ -69239,7 +69239,7 @@
         <v>8612</v>
       </c>
       <c r="B8612">
-        <v>282.0322249191271</v>
+        <v>282.032224919127</v>
       </c>
     </row>
     <row r="8613" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69319,7 +69319,7 @@
         <v>8622</v>
       </c>
       <c r="B8622">
-        <v>1421.394537507525</v>
+        <v>1421.394537507524</v>
       </c>
     </row>
     <row r="8623" spans="1:2">
@@ -69367,7 +69367,7 @@
         <v>8628</v>
       </c>
       <c r="B8628">
-        <v>553.9042630699427</v>
+        <v>553.9042630699425</v>
       </c>
     </row>
     <row r="8629" spans="1:2">
@@ -69407,7 +69407,7 @@
         <v>8633</v>
       </c>
       <c r="B8633">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="8634" spans="1:2">
@@ -69431,7 +69431,7 @@
         <v>8636</v>
       </c>
       <c r="B8636">
-        <v>94.73462710520256</v>
+        <v>94.73462710520252</v>
       </c>
     </row>
     <row r="8637" spans="1:2">
@@ -69487,7 +69487,7 @@
         <v>8643</v>
       </c>
       <c r="B8643">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8644" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>638.8948642817328</v>
+        <v>638.8948642817327</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>419.0915852857238</v>
+        <v>419.0915852857237</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>489.4286345644467</v>
+        <v>489.4286345644466</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -69967,7 +69967,7 @@
         <v>8703</v>
       </c>
       <c r="B8703">
-        <v>203.5299234322605</v>
+        <v>203.5299234322604</v>
       </c>
     </row>
     <row r="8704" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70063,7 +70063,7 @@
         <v>8715</v>
       </c>
       <c r="B8715">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8716" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>407.36874373927</v>
+        <v>407.3687437392699</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
@@ -70127,7 +70127,7 @@
         <v>8723</v>
       </c>
       <c r="B8723">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8724" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>463.0522410849256</v>
+        <v>463.0522410849255</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>838.1831705714476</v>
+        <v>838.1831705714475</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>697.5090720140018</v>
+        <v>697.5090720140017</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>700.4397824006153</v>
+        <v>700.4397824006152</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
